--- a/Code/Results/Cases/Case_1_246/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_246/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9753224554145299</v>
+        <v>1.017795677743293</v>
       </c>
       <c r="D2">
-        <v>1.049955174661068</v>
+        <v>1.054144836612939</v>
       </c>
       <c r="E2">
-        <v>0.9851792581118949</v>
+        <v>1.019144894807285</v>
       </c>
       <c r="F2">
-        <v>1.039687064928339</v>
+        <v>1.056101277921388</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062888648704479</v>
+        <v>1.043581809496192</v>
       </c>
       <c r="J2">
-        <v>0.9982671815769367</v>
+        <v>1.023007760634219</v>
       </c>
       <c r="K2">
-        <v>1.060759807647857</v>
+        <v>1.056888855380177</v>
       </c>
       <c r="L2">
-        <v>0.9968490052546592</v>
+        <v>1.021989012044209</v>
       </c>
       <c r="M2">
-        <v>1.050619856807713</v>
+        <v>1.058839913578404</v>
       </c>
       <c r="N2">
-        <v>0.9996848354776223</v>
+        <v>1.02446054899495</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9808156726905638</v>
+        <v>1.018915747269516</v>
       </c>
       <c r="D3">
-        <v>1.05402230737415</v>
+        <v>1.054879735223907</v>
       </c>
       <c r="E3">
-        <v>0.9895972246612326</v>
+        <v>1.020098387882625</v>
       </c>
       <c r="F3">
-        <v>1.044693176237726</v>
+        <v>1.057047306033185</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064608807460061</v>
+        <v>1.043784867488091</v>
       </c>
       <c r="J3">
-        <v>1.001843344437339</v>
+        <v>1.023762977472822</v>
       </c>
       <c r="K3">
-        <v>1.064007652428745</v>
+        <v>1.057437139279821</v>
       </c>
       <c r="L3">
-        <v>1.000364964435327</v>
+        <v>1.022748061261864</v>
       </c>
       <c r="M3">
-        <v>1.054784435898009</v>
+        <v>1.059599176711343</v>
       </c>
       <c r="N3">
-        <v>1.003266076899478</v>
+        <v>1.025216838328088</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9842802385514131</v>
+        <v>1.019639890275314</v>
       </c>
       <c r="D4">
-        <v>1.056571660915845</v>
+        <v>1.055352038979693</v>
       </c>
       <c r="E4">
-        <v>0.9923905459434953</v>
+        <v>1.020715235621115</v>
       </c>
       <c r="F4">
-        <v>1.04783341364802</v>
+        <v>1.057655893421346</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065669756098917</v>
+        <v>1.043913004342863</v>
       </c>
       <c r="J4">
-        <v>1.004094788233244</v>
+        <v>1.024250541801667</v>
       </c>
       <c r="K4">
-        <v>1.066032090539031</v>
+        <v>1.057788029705283</v>
       </c>
       <c r="L4">
-        <v>1.002581686352894</v>
+        <v>1.023238478553621</v>
       </c>
       <c r="M4">
-        <v>1.05738687363775</v>
+        <v>1.060086298588383</v>
       </c>
       <c r="N4">
-        <v>1.005520718003818</v>
+        <v>1.025705095054204</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9857161652970421</v>
+        <v>1.019944173496857</v>
       </c>
       <c r="D5">
-        <v>1.057624317444737</v>
+        <v>1.055549822209866</v>
       </c>
       <c r="E5">
-        <v>0.9935498628092978</v>
+        <v>1.020974528493887</v>
       </c>
       <c r="F5">
-        <v>1.049130668804316</v>
+        <v>1.05791089141766</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066103621193875</v>
+        <v>1.043966092931432</v>
       </c>
       <c r="J5">
-        <v>1.005026908725247</v>
+        <v>1.024455248107387</v>
       </c>
       <c r="K5">
-        <v>1.066865239330247</v>
+        <v>1.057934612540079</v>
       </c>
       <c r="L5">
-        <v>1.003500191678051</v>
+        <v>1.023444473516465</v>
       </c>
       <c r="M5">
-        <v>1.058459537977571</v>
+        <v>1.06029008477708</v>
       </c>
       <c r="N5">
-        <v>1.006454162213835</v>
+        <v>1.025910092066358</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9859560834958354</v>
+        <v>1.019995255431676</v>
       </c>
       <c r="D6">
-        <v>1.057799960917062</v>
+        <v>1.055582985501679</v>
       </c>
       <c r="E6">
-        <v>0.9937436563047435</v>
+        <v>1.021018063160744</v>
       </c>
       <c r="F6">
-        <v>1.049347163345374</v>
+        <v>1.057953656707623</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066175764924553</v>
+        <v>1.04397496096574</v>
       </c>
       <c r="J6">
-        <v>1.005182588752187</v>
+        <v>1.02448960362332</v>
       </c>
       <c r="K6">
-        <v>1.067004092586195</v>
+        <v>1.057959169782794</v>
       </c>
       <c r="L6">
-        <v>1.003653642363021</v>
+        <v>1.023479050636778</v>
       </c>
       <c r="M6">
-        <v>1.05863840761343</v>
+        <v>1.060324242711335</v>
       </c>
       <c r="N6">
-        <v>1.00661006332427</v>
+        <v>1.025944496371065</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9842995051186746</v>
+        <v>1.019643956696854</v>
       </c>
       <c r="D7">
-        <v>1.056585800785482</v>
+        <v>1.055354684809116</v>
       </c>
       <c r="E7">
-        <v>0.9924060948701708</v>
+        <v>1.020718700422477</v>
       </c>
       <c r="F7">
-        <v>1.047850836583212</v>
+        <v>1.057659304066697</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065675600792776</v>
+        <v>1.043913716781806</v>
       </c>
       <c r="J7">
-        <v>1.004107299045237</v>
+        <v>1.024253278141165</v>
       </c>
       <c r="K7">
-        <v>1.066043292857132</v>
+        <v>1.0577899920142</v>
       </c>
       <c r="L7">
-        <v>1.002594011420245</v>
+        <v>1.02324123176151</v>
       </c>
       <c r="M7">
-        <v>1.057401289826038</v>
+        <v>1.060089025519713</v>
       </c>
       <c r="N7">
-        <v>1.005533246582598</v>
+        <v>1.025707835279619</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9771981226629159</v>
+        <v>1.018174338934345</v>
       </c>
       <c r="D8">
-        <v>1.051347122228543</v>
+        <v>1.054393866027924</v>
       </c>
       <c r="E8">
-        <v>0.9866862837086882</v>
+        <v>1.01946715851846</v>
       </c>
       <c r="F8">
-        <v>1.04139991993782</v>
+        <v>1.056421728398157</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063480972283081</v>
+        <v>1.043651107429434</v>
       </c>
       <c r="J8">
-        <v>0.999489088834062</v>
+        <v>1.023263220058015</v>
       </c>
       <c r="K8">
-        <v>1.061873741216532</v>
+        <v>1.057074954398719</v>
       </c>
       <c r="L8">
-        <v>0.9980496698384714</v>
+        <v>1.022245689334404</v>
       </c>
       <c r="M8">
-        <v>1.052046850279778</v>
+        <v>1.059097373390009</v>
       </c>
       <c r="N8">
-        <v>1.000908477983207</v>
+        <v>1.02471637120043</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9639497804865671</v>
+        <v>1.015579904988492</v>
       </c>
       <c r="D9">
-        <v>1.041454806375512</v>
+        <v>1.05267613290374</v>
       </c>
       <c r="E9">
-        <v>0.9760742776252067</v>
+        <v>1.017260802782369</v>
       </c>
       <c r="F9">
-        <v>1.029234391154718</v>
+        <v>1.054213756800555</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059199152289966</v>
+        <v>1.043163458913932</v>
       </c>
       <c r="J9">
-        <v>0.9908430994134677</v>
+        <v>1.021510080796128</v>
       </c>
       <c r="K9">
-        <v>1.053909297995175</v>
+        <v>1.055785253697704</v>
       </c>
       <c r="L9">
-        <v>0.9895678390092731</v>
+        <v>1.020485746968578</v>
       </c>
       <c r="M9">
-        <v>1.041870321288338</v>
+        <v>1.057318041700642</v>
       </c>
       <c r="N9">
-        <v>0.9922502102659269</v>
+        <v>1.022960742279703</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9545528558498855</v>
+        <v>1.013846986316556</v>
       </c>
       <c r="D10">
-        <v>1.034369060200395</v>
+        <v>1.051514464936902</v>
       </c>
       <c r="E10">
-        <v>0.9685923144700308</v>
+        <v>1.01578921638154</v>
       </c>
       <c r="F10">
-        <v>1.020526865178073</v>
+        <v>1.05272351364828</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056042063998557</v>
+        <v>1.042821661333204</v>
       </c>
       <c r="J10">
-        <v>0.9846933190841679</v>
+        <v>1.02033555565162</v>
       </c>
       <c r="K10">
-        <v>1.048144311853257</v>
+        <v>1.054905532800946</v>
       </c>
       <c r="L10">
-        <v>0.9835527838972073</v>
+        <v>1.019308614710917</v>
       </c>
       <c r="M10">
-        <v>1.034535134178721</v>
+        <v>1.05611040622087</v>
       </c>
       <c r="N10">
-        <v>0.9860916965431697</v>
+        <v>1.02178454917477</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9503321530271994</v>
+        <v>1.013095811690957</v>
       </c>
       <c r="D11">
-        <v>1.03117280078759</v>
+        <v>1.051007543170722</v>
       </c>
       <c r="E11">
-        <v>0.9652436661909217</v>
+        <v>1.015151834351867</v>
       </c>
       <c r="F11">
-        <v>1.016599574285196</v>
+        <v>1.052073893087153</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05459726516942</v>
+        <v>1.04266970568987</v>
       </c>
       <c r="J11">
-        <v>0.9819277906882278</v>
+        <v>1.019825597486589</v>
       </c>
       <c r="K11">
-        <v>1.045529851641987</v>
+        <v>1.054519888572751</v>
       </c>
       <c r="L11">
-        <v>0.9808522131918225</v>
+        <v>1.01879798616977</v>
       </c>
       <c r="M11">
-        <v>1.03121509251346</v>
+        <v>1.055582413307307</v>
       </c>
       <c r="N11">
-        <v>0.983322240779697</v>
+        <v>1.02127386681065</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9487399004158332</v>
+        <v>1.01281666850997</v>
       </c>
       <c r="D12">
-        <v>1.029965223857266</v>
+        <v>1.050818662677487</v>
       </c>
       <c r="E12">
-        <v>0.9639823032264442</v>
+        <v>1.014915055186171</v>
       </c>
       <c r="F12">
-        <v>1.015115793989471</v>
+        <v>1.051831943613893</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054048351887012</v>
+        <v>1.042612668818649</v>
       </c>
       <c r="J12">
-        <v>0.9808840758698525</v>
+        <v>1.019635967969063</v>
       </c>
       <c r="K12">
-        <v>1.044540006190537</v>
+        <v>1.054375934630188</v>
       </c>
       <c r="L12">
-        <v>0.9798336812312466</v>
+        <v>1.018608176646249</v>
       </c>
       <c r="M12">
-        <v>1.029959018107402</v>
+        <v>1.055385530344435</v>
       </c>
       <c r="N12">
-        <v>0.9822770437665638</v>
+        <v>1.021083967997459</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9490825815312028</v>
+        <v>1.01287655128804</v>
       </c>
       <c r="D13">
-        <v>1.030225192614636</v>
+        <v>1.050859204747765</v>
       </c>
       <c r="E13">
-        <v>0.9642536828605165</v>
+        <v>1.014965846359671</v>
       </c>
       <c r="F13">
-        <v>1.015435226281815</v>
+        <v>1.051883872080686</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054166659736516</v>
+        <v>1.042624930284666</v>
       </c>
       <c r="J13">
-        <v>0.9811087198177455</v>
+        <v>1.01967665358679</v>
       </c>
       <c r="K13">
-        <v>1.044753194914022</v>
+        <v>1.054406845293494</v>
       </c>
       <c r="L13">
-        <v>0.9800528746098675</v>
+        <v>1.018648897751535</v>
       </c>
       <c r="M13">
-        <v>1.030229506321314</v>
+        <v>1.055427796929195</v>
       </c>
       <c r="N13">
-        <v>0.9825020067346297</v>
+        <v>1.02112471139343</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9502010470262566</v>
+        <v>1.01307274015845</v>
       </c>
       <c r="D14">
-        <v>1.031073403840657</v>
+        <v>1.050991942225698</v>
       </c>
       <c r="E14">
-        <v>0.965139766183838</v>
+        <v>1.01513226266945</v>
       </c>
       <c r="F14">
-        <v>1.016477443551386</v>
+        <v>1.052053906759121</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054552145214292</v>
+        <v>1.042665003114971</v>
       </c>
       <c r="J14">
-        <v>0.9818418594366477</v>
+        <v>1.01980992690691</v>
       </c>
       <c r="K14">
-        <v>1.045448418451799</v>
+        <v>1.054508003745581</v>
       </c>
       <c r="L14">
-        <v>0.9807683416780381</v>
+        <v>1.018782299302455</v>
       </c>
       <c r="M14">
-        <v>1.031111739065348</v>
+        <v>1.055566154462347</v>
       </c>
       <c r="N14">
-        <v>0.9832361874958832</v>
+        <v>1.021258173976952</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9508868711075664</v>
+        <v>1.013193602177676</v>
       </c>
       <c r="D15">
-        <v>1.031593284347301</v>
+        <v>1.051073648374484</v>
       </c>
       <c r="E15">
-        <v>0.9656833523140905</v>
+        <v>1.015234793636345</v>
       </c>
       <c r="F15">
-        <v>1.017116228569344</v>
+        <v>1.052158584404591</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054788014294056</v>
+        <v>1.042689614638476</v>
       </c>
       <c r="J15">
-        <v>0.9822913546261146</v>
+        <v>1.019892013363221</v>
       </c>
       <c r="K15">
-        <v>1.045874257889884</v>
+        <v>1.054570236936647</v>
       </c>
       <c r="L15">
-        <v>0.9812070898850881</v>
+        <v>1.01886447391285</v>
       </c>
       <c r="M15">
-        <v>1.03165224277539</v>
+        <v>1.055651300017714</v>
       </c>
       <c r="N15">
-        <v>0.9836863210200768</v>
+        <v>1.021340377005446</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9548296315402913</v>
+        <v>1.013896822090082</v>
       </c>
       <c r="D16">
-        <v>1.034578395180493</v>
+        <v>1.051548025294007</v>
       </c>
       <c r="E16">
-        <v>0.9688121618298565</v>
+        <v>1.015831513568996</v>
       </c>
       <c r="F16">
-        <v>1.020784081453762</v>
+        <v>1.052766535474562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056136264955398</v>
+        <v>1.042831662837692</v>
       </c>
       <c r="J16">
-        <v>0.9848746079964548</v>
+        <v>1.020369370725824</v>
       </c>
       <c r="K16">
-        <v>1.048315254843462</v>
+        <v>1.054931027354156</v>
       </c>
       <c r="L16">
-        <v>0.983729906248342</v>
+        <v>1.019342483945915</v>
       </c>
       <c r="M16">
-        <v>1.034752339469659</v>
+        <v>1.056145340382042</v>
       </c>
       <c r="N16">
-        <v>0.9862732429065063</v>
+        <v>1.021818412270257</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9572610429769693</v>
+        <v>1.014337715350257</v>
       </c>
       <c r="D17">
-        <v>1.036415838960442</v>
+        <v>1.051844542488751</v>
       </c>
       <c r="E17">
-        <v>0.9707448360697674</v>
+        <v>1.016205772739208</v>
       </c>
       <c r="F17">
-        <v>1.023041853554413</v>
+        <v>1.053146726344366</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056960784088314</v>
+        <v>1.042919707356964</v>
       </c>
       <c r="J17">
-        <v>0.9864668235111018</v>
+        <v>1.020668434048538</v>
       </c>
       <c r="K17">
-        <v>1.049814134909282</v>
+        <v>1.055156078555013</v>
       </c>
       <c r="L17">
-        <v>0.985286024163075</v>
+        <v>1.019642079509708</v>
       </c>
       <c r="M17">
-        <v>1.036657587487689</v>
+        <v>1.056453879249306</v>
       </c>
       <c r="N17">
-        <v>0.9878677195498138</v>
+        <v>1.022117900297193</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9586647231993526</v>
+        <v>1.014594802961588</v>
       </c>
       <c r="D18">
-        <v>1.037475310118694</v>
+        <v>1.052017118481605</v>
       </c>
       <c r="E18">
-        <v>0.9718617083833266</v>
+        <v>1.016424054908972</v>
       </c>
       <c r="F18">
-        <v>1.024343742007315</v>
+        <v>1.053368066952712</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057434250705312</v>
+        <v>1.04297068060641</v>
       </c>
       <c r="J18">
-        <v>0.9873857097759796</v>
+        <v>1.020842739435941</v>
       </c>
       <c r="K18">
-        <v>1.050677073019451</v>
+        <v>1.055286891741444</v>
       </c>
       <c r="L18">
-        <v>0.9861844897370695</v>
+        <v>1.019816739577082</v>
       </c>
       <c r="M18">
-        <v>1.037755096816858</v>
+        <v>1.056633354717508</v>
       </c>
       <c r="N18">
-        <v>0.9887879107385853</v>
+        <v>1.022292453218238</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.959140927622006</v>
+        <v>1.014682450025065</v>
       </c>
       <c r="D19">
-        <v>1.037834511497581</v>
+        <v>1.052075898392403</v>
       </c>
       <c r="E19">
-        <v>0.9722407984599887</v>
+        <v>1.01649848064836</v>
       </c>
       <c r="F19">
-        <v>1.024785144232968</v>
+        <v>1.053443467432576</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057594441388348</v>
+        <v>1.042987996422813</v>
       </c>
       <c r="J19">
-        <v>0.9876973899601572</v>
+        <v>1.020902150503215</v>
       </c>
       <c r="K19">
-        <v>1.050969418075096</v>
+        <v>1.055331418401831</v>
       </c>
       <c r="L19">
-        <v>0.9864893128853376</v>
+        <v>1.019876279080302</v>
       </c>
       <c r="M19">
-        <v>1.038127016234424</v>
+        <v>1.056694468090196</v>
       </c>
       <c r="N19">
-        <v>0.9891000335443746</v>
+        <v>1.022351948656043</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.957001689216166</v>
+        <v>1.014290419753731</v>
       </c>
       <c r="D20">
-        <v>1.036219976306309</v>
+        <v>1.051812768039093</v>
       </c>
       <c r="E20">
-        <v>0.9705385646606494</v>
+        <v>1.016165620022464</v>
       </c>
       <c r="F20">
-        <v>1.022801180767018</v>
+        <v>1.053105978728418</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056873096697286</v>
+        <v>1.04291030048365</v>
       </c>
       <c r="J20">
-        <v>0.9862970175142943</v>
+        <v>1.020636361166604</v>
       </c>
       <c r="K20">
-        <v>1.049654498187938</v>
+        <v>1.055131979788034</v>
       </c>
       <c r="L20">
-        <v>0.9851200250621952</v>
+        <v>1.019609944947351</v>
       </c>
       <c r="M20">
-        <v>1.036454607388204</v>
+        <v>1.056420826633572</v>
       </c>
       <c r="N20">
-        <v>0.9876976724090138</v>
+        <v>1.022085781868088</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9498723774640526</v>
+        <v>1.013014970849856</v>
       </c>
       <c r="D21">
-        <v>1.030824197723102</v>
+        <v>1.050952870551943</v>
       </c>
       <c r="E21">
-        <v>0.964879330438194</v>
+        <v>1.015083257968304</v>
       </c>
       <c r="F21">
-        <v>1.0161712391922</v>
+        <v>1.05200385376961</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054438972363249</v>
+        <v>1.042653219053318</v>
       </c>
       <c r="J21">
-        <v>0.9816264318587216</v>
+        <v>1.019770686994467</v>
       </c>
       <c r="K21">
-        <v>1.04524421736183</v>
+        <v>1.054478234657245</v>
       </c>
       <c r="L21">
-        <v>0.9805580885971669</v>
+        <v>1.018743019723521</v>
       </c>
       <c r="M21">
-        <v>1.030852585286108</v>
+        <v>1.055525432676012</v>
       </c>
       <c r="N21">
-        <v>0.9830204539860865</v>
+        <v>1.021218878339332</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9452472055707724</v>
+        <v>1.012212330135573</v>
       </c>
       <c r="D22">
-        <v>1.027313331595708</v>
+        <v>1.050408821844668</v>
       </c>
       <c r="E22">
-        <v>0.9612190850268377</v>
+        <v>1.01440257679786</v>
       </c>
       <c r="F22">
-        <v>1.011857216851647</v>
+        <v>1.051307134715074</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052837341081663</v>
+        <v>1.042488146503015</v>
       </c>
       <c r="J22">
-        <v>0.978593932795828</v>
+        <v>1.019225197385895</v>
       </c>
       <c r="K22">
-        <v>1.042362453684724</v>
+        <v>1.054063100148581</v>
       </c>
       <c r="L22">
-        <v>0.9776000382600178</v>
+        <v>1.0181971428102</v>
       </c>
       <c r="M22">
-        <v>1.027197383582508</v>
+        <v>1.054958049135387</v>
       </c>
       <c r="N22">
-        <v>0.9799836484266912</v>
+        <v>1.020672614072947</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9477132330334208</v>
+        <v>1.012637893609061</v>
       </c>
       <c r="D23">
-        <v>1.029186119235189</v>
+        <v>1.050697554199894</v>
       </c>
       <c r="E23">
-        <v>0.9631695431414398</v>
+        <v>1.014763433923098</v>
       </c>
       <c r="F23">
-        <v>1.014158472878789</v>
+        <v>1.051676836025604</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05369334939037</v>
+        <v>1.042575980079856</v>
       </c>
       <c r="J23">
-        <v>0.980210989742297</v>
+        <v>1.019514486352124</v>
       </c>
       <c r="K23">
-        <v>1.043900794361541</v>
+        <v>1.054283559194046</v>
       </c>
       <c r="L23">
-        <v>0.9791770250662211</v>
+        <v>1.018486599207593</v>
       </c>
       <c r="M23">
-        <v>1.029148130428259</v>
+        <v>1.055259248242632</v>
       </c>
       <c r="N23">
-        <v>0.981603001779503</v>
+        <v>1.02096231386269</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9571189247656789</v>
+        <v>1.014311790838282</v>
       </c>
       <c r="D24">
-        <v>1.036308516072578</v>
+        <v>1.051827126711154</v>
       </c>
       <c r="E24">
-        <v>0.9706318019587055</v>
+        <v>1.01618376335858</v>
       </c>
       <c r="F24">
-        <v>1.022909976786329</v>
+        <v>1.053124392114003</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056912741870795</v>
+        <v>1.042914552223774</v>
       </c>
       <c r="J24">
-        <v>0.986373775822676</v>
+        <v>1.020650853932531</v>
       </c>
       <c r="K24">
-        <v>1.049726666102832</v>
+        <v>1.055142870390197</v>
       </c>
       <c r="L24">
-        <v>0.9851950612421034</v>
+        <v>1.019624465447375</v>
       </c>
       <c r="M24">
-        <v>1.036546367879518</v>
+        <v>1.056435763201508</v>
       </c>
       <c r="N24">
-        <v>0.9877745397229977</v>
+        <v>1.022100295215404</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9674687615510396</v>
+        <v>1.016251203118025</v>
       </c>
       <c r="D25">
-        <v>1.044095079916777</v>
+        <v>1.053123122546068</v>
       </c>
       <c r="E25">
-        <v>0.9788856768155685</v>
+        <v>1.017831317023763</v>
       </c>
       <c r="F25">
-        <v>1.032479966929158</v>
+        <v>1.054787790942505</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060357556621905</v>
+        <v>1.043292473788352</v>
       </c>
       <c r="J25">
-        <v>0.993142817232606</v>
+        <v>1.021964323192706</v>
       </c>
       <c r="K25">
-        <v>1.056045376576545</v>
+        <v>1.056122187205804</v>
       </c>
       <c r="L25">
-        <v>0.9918208542228208</v>
+        <v>1.020941408618346</v>
       </c>
       <c r="M25">
-        <v>1.044594160445447</v>
+        <v>1.057781818763181</v>
       </c>
       <c r="N25">
-        <v>0.9945531939481499</v>
+        <v>1.023415629752586</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_246/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_246/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017795677743293</v>
+        <v>0.9753224554145297</v>
       </c>
       <c r="D2">
-        <v>1.054144836612939</v>
+        <v>1.049955174661068</v>
       </c>
       <c r="E2">
-        <v>1.019144894807285</v>
+        <v>0.9851792581118944</v>
       </c>
       <c r="F2">
-        <v>1.056101277921388</v>
+        <v>1.039687064928338</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043581809496192</v>
+        <v>1.062888648704478</v>
       </c>
       <c r="J2">
-        <v>1.023007760634219</v>
+        <v>0.9982671815769366</v>
       </c>
       <c r="K2">
-        <v>1.056888855380177</v>
+        <v>1.060759807647856</v>
       </c>
       <c r="L2">
-        <v>1.021989012044209</v>
+        <v>0.996849005254659</v>
       </c>
       <c r="M2">
-        <v>1.058839913578404</v>
+        <v>1.050619856807712</v>
       </c>
       <c r="N2">
-        <v>1.02446054899495</v>
+        <v>0.9996848354776222</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018915747269516</v>
+        <v>0.9808156726905644</v>
       </c>
       <c r="D3">
-        <v>1.054879735223907</v>
+        <v>1.054022307374151</v>
       </c>
       <c r="E3">
-        <v>1.020098387882625</v>
+        <v>0.9895972246612333</v>
       </c>
       <c r="F3">
-        <v>1.057047306033185</v>
+        <v>1.044693176237727</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043784867488091</v>
+        <v>1.064608807460061</v>
       </c>
       <c r="J3">
-        <v>1.023762977472822</v>
+        <v>1.00184334443734</v>
       </c>
       <c r="K3">
-        <v>1.057437139279821</v>
+        <v>1.064007652428746</v>
       </c>
       <c r="L3">
-        <v>1.022748061261864</v>
+        <v>1.000364964435328</v>
       </c>
       <c r="M3">
-        <v>1.059599176711343</v>
+        <v>1.05478443589801</v>
       </c>
       <c r="N3">
-        <v>1.025216838328088</v>
+        <v>1.003266076899479</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019639890275314</v>
+        <v>0.9842802385514131</v>
       </c>
       <c r="D4">
-        <v>1.055352038979693</v>
+        <v>1.056571660915846</v>
       </c>
       <c r="E4">
-        <v>1.020715235621115</v>
+        <v>0.9923905459434947</v>
       </c>
       <c r="F4">
-        <v>1.057655893421346</v>
+        <v>1.04783341364802</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043913004342863</v>
+        <v>1.065669756098918</v>
       </c>
       <c r="J4">
-        <v>1.024250541801667</v>
+        <v>1.004094788233244</v>
       </c>
       <c r="K4">
-        <v>1.057788029705283</v>
+        <v>1.066032090539032</v>
       </c>
       <c r="L4">
-        <v>1.023238478553621</v>
+        <v>1.002581686352894</v>
       </c>
       <c r="M4">
-        <v>1.060086298588383</v>
+        <v>1.057386873637751</v>
       </c>
       <c r="N4">
-        <v>1.025705095054204</v>
+        <v>1.005520718003817</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019944173496857</v>
+        <v>0.9857161652970423</v>
       </c>
       <c r="D5">
-        <v>1.055549822209866</v>
+        <v>1.057624317444737</v>
       </c>
       <c r="E5">
-        <v>1.020974528493887</v>
+        <v>0.993549862809298</v>
       </c>
       <c r="F5">
-        <v>1.05791089141766</v>
+        <v>1.049130668804316</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043966092931432</v>
+        <v>1.066103621193875</v>
       </c>
       <c r="J5">
-        <v>1.024455248107387</v>
+        <v>1.005026908725248</v>
       </c>
       <c r="K5">
-        <v>1.057934612540079</v>
+        <v>1.066865239330247</v>
       </c>
       <c r="L5">
-        <v>1.023444473516465</v>
+        <v>1.003500191678051</v>
       </c>
       <c r="M5">
-        <v>1.06029008477708</v>
+        <v>1.058459537977571</v>
       </c>
       <c r="N5">
-        <v>1.025910092066358</v>
+        <v>1.006454162213835</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019995255431676</v>
+        <v>0.9859560834958355</v>
       </c>
       <c r="D6">
-        <v>1.055582985501679</v>
+        <v>1.057799960917062</v>
       </c>
       <c r="E6">
-        <v>1.021018063160744</v>
+        <v>0.9937436563047436</v>
       </c>
       <c r="F6">
-        <v>1.057953656707623</v>
+        <v>1.049347163345373</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04397496096574</v>
+        <v>1.066175764924553</v>
       </c>
       <c r="J6">
-        <v>1.02448960362332</v>
+        <v>1.005182588752188</v>
       </c>
       <c r="K6">
-        <v>1.057959169782794</v>
+        <v>1.067004092586194</v>
       </c>
       <c r="L6">
-        <v>1.023479050636778</v>
+        <v>1.003653642363021</v>
       </c>
       <c r="M6">
-        <v>1.060324242711335</v>
+        <v>1.058638407613429</v>
       </c>
       <c r="N6">
-        <v>1.025944496371065</v>
+        <v>1.00661006332427</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019643956696854</v>
+        <v>0.9842995051186745</v>
       </c>
       <c r="D7">
-        <v>1.055354684809116</v>
+        <v>1.056585800785482</v>
       </c>
       <c r="E7">
-        <v>1.020718700422477</v>
+        <v>0.9924060948701705</v>
       </c>
       <c r="F7">
-        <v>1.057659304066697</v>
+        <v>1.047850836583212</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043913716781806</v>
+        <v>1.065675600792776</v>
       </c>
       <c r="J7">
-        <v>1.024253278141165</v>
+        <v>1.004107299045237</v>
       </c>
       <c r="K7">
-        <v>1.0577899920142</v>
+        <v>1.066043292857132</v>
       </c>
       <c r="L7">
-        <v>1.02324123176151</v>
+        <v>1.002594011420245</v>
       </c>
       <c r="M7">
-        <v>1.060089025519713</v>
+        <v>1.057401289826039</v>
       </c>
       <c r="N7">
-        <v>1.025707835279619</v>
+        <v>1.005533246582598</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018174338934345</v>
+        <v>0.9771981226629165</v>
       </c>
       <c r="D8">
-        <v>1.054393866027924</v>
+        <v>1.051347122228543</v>
       </c>
       <c r="E8">
-        <v>1.01946715851846</v>
+        <v>0.9866862837086887</v>
       </c>
       <c r="F8">
-        <v>1.056421728398157</v>
+        <v>1.041399919937821</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043651107429434</v>
+        <v>1.063480972283082</v>
       </c>
       <c r="J8">
-        <v>1.023263220058015</v>
+        <v>0.9994890888340624</v>
       </c>
       <c r="K8">
-        <v>1.057074954398719</v>
+        <v>1.061873741216532</v>
       </c>
       <c r="L8">
-        <v>1.022245689334404</v>
+        <v>0.998049669838472</v>
       </c>
       <c r="M8">
-        <v>1.059097373390009</v>
+        <v>1.052046850279778</v>
       </c>
       <c r="N8">
-        <v>1.02471637120043</v>
+        <v>1.000908477983208</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015579904988492</v>
+        <v>0.963949780486568</v>
       </c>
       <c r="D9">
-        <v>1.05267613290374</v>
+        <v>1.041454806375514</v>
       </c>
       <c r="E9">
-        <v>1.017260802782369</v>
+        <v>0.9760742776252072</v>
       </c>
       <c r="F9">
-        <v>1.054213756800555</v>
+        <v>1.02923439115472</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043163458913932</v>
+        <v>1.059199152289967</v>
       </c>
       <c r="J9">
-        <v>1.021510080796128</v>
+        <v>0.9908430994134685</v>
       </c>
       <c r="K9">
-        <v>1.055785253697704</v>
+        <v>1.053909297995177</v>
       </c>
       <c r="L9">
-        <v>1.020485746968578</v>
+        <v>0.9895678390092736</v>
       </c>
       <c r="M9">
-        <v>1.057318041700642</v>
+        <v>1.04187032128834</v>
       </c>
       <c r="N9">
-        <v>1.022960742279703</v>
+        <v>0.9922502102659276</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013846986316556</v>
+        <v>0.9545528558498856</v>
       </c>
       <c r="D10">
-        <v>1.051514464936902</v>
+        <v>1.034369060200395</v>
       </c>
       <c r="E10">
-        <v>1.01578921638154</v>
+        <v>0.9685923144700308</v>
       </c>
       <c r="F10">
-        <v>1.05272351364828</v>
+        <v>1.020526865178072</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042821661333204</v>
+        <v>1.056042063998556</v>
       </c>
       <c r="J10">
-        <v>1.02033555565162</v>
+        <v>0.9846933190841679</v>
       </c>
       <c r="K10">
-        <v>1.054905532800946</v>
+        <v>1.048144311853257</v>
       </c>
       <c r="L10">
-        <v>1.019308614710917</v>
+        <v>0.9835527838972075</v>
       </c>
       <c r="M10">
-        <v>1.05611040622087</v>
+        <v>1.034535134178721</v>
       </c>
       <c r="N10">
-        <v>1.02178454917477</v>
+        <v>0.98609169654317</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013095811690957</v>
+        <v>0.9503321530272002</v>
       </c>
       <c r="D11">
-        <v>1.051007543170722</v>
+        <v>1.031172800787591</v>
       </c>
       <c r="E11">
-        <v>1.015151834351867</v>
+        <v>0.9652436661909222</v>
       </c>
       <c r="F11">
-        <v>1.052073893087153</v>
+        <v>1.016599574285197</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04266970568987</v>
+        <v>1.054597265169421</v>
       </c>
       <c r="J11">
-        <v>1.019825597486589</v>
+        <v>0.9819277906882286</v>
       </c>
       <c r="K11">
-        <v>1.054519888572751</v>
+        <v>1.045529851641988</v>
       </c>
       <c r="L11">
-        <v>1.01879798616977</v>
+        <v>0.9808522131918233</v>
       </c>
       <c r="M11">
-        <v>1.055582413307307</v>
+        <v>1.031215092513461</v>
       </c>
       <c r="N11">
-        <v>1.02127386681065</v>
+        <v>0.9833222407796978</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01281666850997</v>
+        <v>0.9487399004158328</v>
       </c>
       <c r="D12">
-        <v>1.050818662677487</v>
+        <v>1.029965223857265</v>
       </c>
       <c r="E12">
-        <v>1.014915055186171</v>
+        <v>0.9639823032264434</v>
       </c>
       <c r="F12">
-        <v>1.051831943613893</v>
+        <v>1.01511579398947</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042612668818649</v>
+        <v>1.054048351887012</v>
       </c>
       <c r="J12">
-        <v>1.019635967969063</v>
+        <v>0.980884075869852</v>
       </c>
       <c r="K12">
-        <v>1.054375934630188</v>
+        <v>1.044540006190537</v>
       </c>
       <c r="L12">
-        <v>1.018608176646249</v>
+        <v>0.9798336812312458</v>
       </c>
       <c r="M12">
-        <v>1.055385530344435</v>
+        <v>1.029959018107401</v>
       </c>
       <c r="N12">
-        <v>1.021083967997459</v>
+        <v>0.9822770437665632</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01287655128804</v>
+        <v>0.9490825815312025</v>
       </c>
       <c r="D13">
-        <v>1.050859204747765</v>
+        <v>1.030225192614636</v>
       </c>
       <c r="E13">
-        <v>1.014965846359671</v>
+        <v>0.9642536828605156</v>
       </c>
       <c r="F13">
-        <v>1.051883872080686</v>
+        <v>1.015435226281816</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042624930284666</v>
+        <v>1.054166659736517</v>
       </c>
       <c r="J13">
-        <v>1.01967665358679</v>
+        <v>0.9811087198177449</v>
       </c>
       <c r="K13">
-        <v>1.054406845293494</v>
+        <v>1.044753194914023</v>
       </c>
       <c r="L13">
-        <v>1.018648897751535</v>
+        <v>0.9800528746098668</v>
       </c>
       <c r="M13">
-        <v>1.055427796929195</v>
+        <v>1.030229506321314</v>
       </c>
       <c r="N13">
-        <v>1.02112471139343</v>
+        <v>0.9825020067346293</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01307274015845</v>
+        <v>0.950201047026256</v>
       </c>
       <c r="D14">
-        <v>1.050991942225698</v>
+        <v>1.031073403840656</v>
       </c>
       <c r="E14">
-        <v>1.01513226266945</v>
+        <v>0.9651397661838378</v>
       </c>
       <c r="F14">
-        <v>1.052053906759121</v>
+        <v>1.016477443551385</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042665003114971</v>
+        <v>1.054552145214292</v>
       </c>
       <c r="J14">
-        <v>1.01980992690691</v>
+        <v>0.9818418594366474</v>
       </c>
       <c r="K14">
-        <v>1.054508003745581</v>
+        <v>1.045448418451798</v>
       </c>
       <c r="L14">
-        <v>1.018782299302455</v>
+        <v>0.9807683416780378</v>
       </c>
       <c r="M14">
-        <v>1.055566154462347</v>
+        <v>1.031111739065348</v>
       </c>
       <c r="N14">
-        <v>1.021258173976952</v>
+        <v>0.9832361874958828</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013193602177676</v>
+        <v>0.9508868711075671</v>
       </c>
       <c r="D15">
-        <v>1.051073648374484</v>
+        <v>1.031593284347301</v>
       </c>
       <c r="E15">
-        <v>1.015234793636345</v>
+        <v>0.9656833523140909</v>
       </c>
       <c r="F15">
-        <v>1.052158584404591</v>
+        <v>1.017116228569344</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042689614638476</v>
+        <v>1.054788014294056</v>
       </c>
       <c r="J15">
-        <v>1.019892013363221</v>
+        <v>0.9822913546261151</v>
       </c>
       <c r="K15">
-        <v>1.054570236936647</v>
+        <v>1.045874257889884</v>
       </c>
       <c r="L15">
-        <v>1.01886447391285</v>
+        <v>0.9812070898850884</v>
       </c>
       <c r="M15">
-        <v>1.055651300017714</v>
+        <v>1.03165224277539</v>
       </c>
       <c r="N15">
-        <v>1.021340377005446</v>
+        <v>0.9836863210200772</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013896822090082</v>
+        <v>0.9548296315402917</v>
       </c>
       <c r="D16">
-        <v>1.051548025294007</v>
+        <v>1.034578395180493</v>
       </c>
       <c r="E16">
-        <v>1.015831513568996</v>
+        <v>0.9688121618298569</v>
       </c>
       <c r="F16">
-        <v>1.052766535474562</v>
+        <v>1.020784081453762</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042831662837692</v>
+        <v>1.056136264955398</v>
       </c>
       <c r="J16">
-        <v>1.020369370725824</v>
+        <v>0.9848746079964551</v>
       </c>
       <c r="K16">
-        <v>1.054931027354156</v>
+        <v>1.048315254843462</v>
       </c>
       <c r="L16">
-        <v>1.019342483945915</v>
+        <v>0.9837299062483423</v>
       </c>
       <c r="M16">
-        <v>1.056145340382042</v>
+        <v>1.034752339469659</v>
       </c>
       <c r="N16">
-        <v>1.021818412270257</v>
+        <v>0.9862732429065065</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014337715350257</v>
+        <v>0.957261042976969</v>
       </c>
       <c r="D17">
-        <v>1.051844542488751</v>
+        <v>1.036415838960442</v>
       </c>
       <c r="E17">
-        <v>1.016205772739208</v>
+        <v>0.9707448360697668</v>
       </c>
       <c r="F17">
-        <v>1.053146726344366</v>
+        <v>1.023041853554413</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042919707356964</v>
+        <v>1.056960784088314</v>
       </c>
       <c r="J17">
-        <v>1.020668434048538</v>
+        <v>0.9864668235111014</v>
       </c>
       <c r="K17">
-        <v>1.055156078555013</v>
+        <v>1.049814134909282</v>
       </c>
       <c r="L17">
-        <v>1.019642079509708</v>
+        <v>0.9852860241630744</v>
       </c>
       <c r="M17">
-        <v>1.056453879249306</v>
+        <v>1.036657587487689</v>
       </c>
       <c r="N17">
-        <v>1.022117900297193</v>
+        <v>0.9878677195498135</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014594802961588</v>
+        <v>0.9586647231993529</v>
       </c>
       <c r="D18">
-        <v>1.052017118481605</v>
+        <v>1.037475310118694</v>
       </c>
       <c r="E18">
-        <v>1.016424054908972</v>
+        <v>0.9718617083833271</v>
       </c>
       <c r="F18">
-        <v>1.053368066952712</v>
+        <v>1.024343742007314</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04297068060641</v>
+        <v>1.057434250705312</v>
       </c>
       <c r="J18">
-        <v>1.020842739435941</v>
+        <v>0.9873857097759801</v>
       </c>
       <c r="K18">
-        <v>1.055286891741444</v>
+        <v>1.050677073019451</v>
       </c>
       <c r="L18">
-        <v>1.019816739577082</v>
+        <v>0.9861844897370698</v>
       </c>
       <c r="M18">
-        <v>1.056633354717508</v>
+        <v>1.037755096816857</v>
       </c>
       <c r="N18">
-        <v>1.022292453218238</v>
+        <v>0.9887879107385859</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014682450025065</v>
+        <v>0.9591409276220063</v>
       </c>
       <c r="D19">
-        <v>1.052075898392403</v>
+        <v>1.037834511497581</v>
       </c>
       <c r="E19">
-        <v>1.01649848064836</v>
+        <v>0.972240798459989</v>
       </c>
       <c r="F19">
-        <v>1.053443467432576</v>
+        <v>1.024785144232968</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042987996422813</v>
+        <v>1.057594441388348</v>
       </c>
       <c r="J19">
-        <v>1.020902150503215</v>
+        <v>0.9876973899601575</v>
       </c>
       <c r="K19">
-        <v>1.055331418401831</v>
+        <v>1.050969418075096</v>
       </c>
       <c r="L19">
-        <v>1.019876279080302</v>
+        <v>0.986489312885338</v>
       </c>
       <c r="M19">
-        <v>1.056694468090196</v>
+        <v>1.038127016234424</v>
       </c>
       <c r="N19">
-        <v>1.022351948656043</v>
+        <v>0.989100033544375</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014290419753731</v>
+        <v>0.9570016892161655</v>
       </c>
       <c r="D20">
-        <v>1.051812768039093</v>
+        <v>1.036219976306309</v>
       </c>
       <c r="E20">
-        <v>1.016165620022464</v>
+        <v>0.9705385646606485</v>
       </c>
       <c r="F20">
-        <v>1.053105978728418</v>
+        <v>1.022801180767017</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04291030048365</v>
+        <v>1.056873096697285</v>
       </c>
       <c r="J20">
-        <v>1.020636361166604</v>
+        <v>0.9862970175142937</v>
       </c>
       <c r="K20">
-        <v>1.055131979788034</v>
+        <v>1.049654498187937</v>
       </c>
       <c r="L20">
-        <v>1.019609944947351</v>
+        <v>0.9851200250621943</v>
       </c>
       <c r="M20">
-        <v>1.056420826633572</v>
+        <v>1.036454607388203</v>
       </c>
       <c r="N20">
-        <v>1.022085781868088</v>
+        <v>0.9876976724090131</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013014970849856</v>
+        <v>0.949872377464052</v>
       </c>
       <c r="D21">
-        <v>1.050952870551943</v>
+        <v>1.030824197723102</v>
       </c>
       <c r="E21">
-        <v>1.015083257968304</v>
+        <v>0.9648793304381934</v>
       </c>
       <c r="F21">
-        <v>1.05200385376961</v>
+        <v>1.0161712391922</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042653219053318</v>
+        <v>1.054438972363249</v>
       </c>
       <c r="J21">
-        <v>1.019770686994467</v>
+        <v>0.9816264318587213</v>
       </c>
       <c r="K21">
-        <v>1.054478234657245</v>
+        <v>1.04524421736183</v>
       </c>
       <c r="L21">
-        <v>1.018743019723521</v>
+        <v>0.9805580885971664</v>
       </c>
       <c r="M21">
-        <v>1.055525432676012</v>
+        <v>1.030852585286108</v>
       </c>
       <c r="N21">
-        <v>1.021218878339332</v>
+        <v>0.9830204539860858</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.012212330135573</v>
+        <v>0.9452472055707714</v>
       </c>
       <c r="D22">
-        <v>1.050408821844668</v>
+        <v>1.027313331595707</v>
       </c>
       <c r="E22">
-        <v>1.01440257679786</v>
+        <v>0.9612190850268368</v>
       </c>
       <c r="F22">
-        <v>1.051307134715074</v>
+        <v>1.011857216851646</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042488146503015</v>
+        <v>1.052837341081662</v>
       </c>
       <c r="J22">
-        <v>1.019225197385895</v>
+        <v>0.9785939327958272</v>
       </c>
       <c r="K22">
-        <v>1.054063100148581</v>
+        <v>1.042362453684722</v>
       </c>
       <c r="L22">
-        <v>1.0181971428102</v>
+        <v>0.9776000382600168</v>
       </c>
       <c r="M22">
-        <v>1.054958049135387</v>
+        <v>1.027197383582507</v>
       </c>
       <c r="N22">
-        <v>1.020672614072947</v>
+        <v>0.9799836484266905</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.012637893609061</v>
+        <v>0.9477132330334218</v>
       </c>
       <c r="D23">
-        <v>1.050697554199894</v>
+        <v>1.029186119235188</v>
       </c>
       <c r="E23">
-        <v>1.014763433923098</v>
+        <v>0.9631695431414407</v>
       </c>
       <c r="F23">
-        <v>1.051676836025604</v>
+        <v>1.014158472878789</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042575980079856</v>
+        <v>1.053693349390369</v>
       </c>
       <c r="J23">
-        <v>1.019514486352124</v>
+        <v>0.9802109897422978</v>
       </c>
       <c r="K23">
-        <v>1.054283559194046</v>
+        <v>1.043900794361541</v>
       </c>
       <c r="L23">
-        <v>1.018486599207593</v>
+        <v>0.9791770250662218</v>
       </c>
       <c r="M23">
-        <v>1.055259248242632</v>
+        <v>1.029148130428259</v>
       </c>
       <c r="N23">
-        <v>1.02096231386269</v>
+        <v>0.9816030017795039</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014311790838282</v>
+        <v>0.9571189247656787</v>
       </c>
       <c r="D24">
-        <v>1.051827126711154</v>
+        <v>1.036308516072578</v>
       </c>
       <c r="E24">
-        <v>1.01618376335858</v>
+        <v>0.9706318019587051</v>
       </c>
       <c r="F24">
-        <v>1.053124392114003</v>
+        <v>1.022909976786328</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042914552223774</v>
+        <v>1.056912741870795</v>
       </c>
       <c r="J24">
-        <v>1.020650853932531</v>
+        <v>0.9863737758226755</v>
       </c>
       <c r="K24">
-        <v>1.055142870390197</v>
+        <v>1.049726666102831</v>
       </c>
       <c r="L24">
-        <v>1.019624465447375</v>
+        <v>0.9851950612421031</v>
       </c>
       <c r="M24">
-        <v>1.056435763201508</v>
+        <v>1.036546367879518</v>
       </c>
       <c r="N24">
-        <v>1.022100295215404</v>
+        <v>0.9877745397229972</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016251203118025</v>
+        <v>0.9674687615510394</v>
       </c>
       <c r="D25">
-        <v>1.053123122546068</v>
+        <v>1.044095079916777</v>
       </c>
       <c r="E25">
-        <v>1.017831317023763</v>
+        <v>0.9788856768155684</v>
       </c>
       <c r="F25">
-        <v>1.054787790942505</v>
+        <v>1.032479966929158</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043292473788352</v>
+        <v>1.060357556621905</v>
       </c>
       <c r="J25">
-        <v>1.021964323192706</v>
+        <v>0.993142817232606</v>
       </c>
       <c r="K25">
-        <v>1.056122187205804</v>
+        <v>1.056045376576545</v>
       </c>
       <c r="L25">
-        <v>1.020941408618346</v>
+        <v>0.9918208542228208</v>
       </c>
       <c r="M25">
-        <v>1.057781818763181</v>
+        <v>1.044594160445447</v>
       </c>
       <c r="N25">
-        <v>1.023415629752586</v>
+        <v>0.9945531939481496</v>
       </c>
     </row>
   </sheetData>
